--- a/exports/802576637_EPSILON_BRIDGE_KINHSEIS.xlsx
+++ b/exports/802576637_EPSILON_BRIDGE_KINHSEIS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
   <si>
     <t>ARTID</t>
   </si>
@@ -64,7 +64,7 @@
     <t>LCODE</t>
   </si>
   <si>
-    <t>ΤΡΑΚΑΔΑΣ Α.Ε. (094439854)</t>
+    <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
   </si>
   <si>
     <t>ΤΕΡΖΟΠΟΥΛΟΣ ΚΩΝΣΤ (115333562)</t>
@@ -73,13 +73,7 @@
     <t xml:space="preserve"> (094386010)</t>
   </si>
   <si>
-    <t>Τιμολόγιο 8962</t>
-  </si>
-  <si>
-    <t>Τιμολόγιο 8970</t>
-  </si>
-  <si>
-    <t>Τιμολόγιο 56096</t>
+    <t>ΑΦΟΙ ΛΑΓΟΥ ΧΡΩΜΑΤΑ ΙΚΕ</t>
   </si>
   <si>
     <t>10768</t>
@@ -100,13 +94,25 @@
     <t>56096</t>
   </si>
   <si>
+    <t>60038</t>
+  </si>
+  <si>
+    <t>64-9987</t>
+  </si>
+  <si>
     <t>64-0000</t>
   </si>
   <si>
-    <t>62-00.00</t>
-  </si>
-  <si>
-    <t>None</t>
+    <t>20-1087</t>
+  </si>
+  <si>
+    <t>64-0025</t>
+  </si>
+  <si>
+    <t>50-0000</t>
+  </si>
+  <si>
+    <t>50-1000</t>
   </si>
 </sst>
 </file>
@@ -471,7 +477,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -553,7 +559,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>170</v>
+        <v>20254</v>
       </c>
       <c r="F2" s="2">
         <v>45933</v>
@@ -562,13 +568,13 @@
         <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I2" s="3">
         <v>13.83</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
@@ -586,7 +592,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -612,7 +618,7 @@
         <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I3" s="3">
         <v>8</v>
@@ -636,7 +642,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -662,7 +668,7 @@
         <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I4" s="3">
         <v>9.4</v>
@@ -686,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -712,7 +718,7 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I5" s="3">
         <v>9.4</v>
@@ -736,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -759,10 +765,10 @@
         <v>45934</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I6" s="3">
         <v>8.75</v>
@@ -786,7 +792,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -809,10 +815,10 @@
         <v>45934</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I7" s="3">
         <v>48.39</v>
@@ -836,7 +842,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -859,10 +865,10 @@
         <v>45757</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I8" s="3">
         <v>129.99</v>
@@ -886,7 +892,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -909,16 +915,16 @@
         <v>45757</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I9" s="3">
         <v>129.99</v>
       </c>
       <c r="J9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K9" s="1">
         <v>0</v>
@@ -936,7 +942,57 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>14460</v>
+      </c>
+      <c r="F10" s="2">
+        <v>45934</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="3">
+        <v>18.3</v>
+      </c>
+      <c r="J10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>18.3</v>
+      </c>
+      <c r="M10" s="3">
+        <v>18.3</v>
+      </c>
+      <c r="N10" s="3">
+        <v>4.39</v>
+      </c>
+      <c r="O10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P10" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/exports/802576637_EPSILON_BRIDGE_KINHSEIS.xlsx
+++ b/exports/802576637_EPSILON_BRIDGE_KINHSEIS.xlsx
@@ -91,10 +91,10 @@
     <t>8970</t>
   </si>
   <si>
+    <t>60038</t>
+  </si>
+  <si>
     <t>56096</t>
-  </si>
-  <si>
-    <t>60038</t>
   </si>
   <si>
     <t>64-9987</t>
@@ -862,7 +862,7 @@
         <v>14460</v>
       </c>
       <c r="F8" s="2">
-        <v>45757</v>
+        <v>45934</v>
       </c>
       <c r="G8" t="s">
         <v>19</v>
@@ -871,7 +871,7 @@
         <v>25</v>
       </c>
       <c r="I8" s="3">
-        <v>129.99</v>
+        <v>18.3</v>
       </c>
       <c r="J8" t="s">
         <v>29</v>
@@ -880,16 +880,16 @@
         <v>0</v>
       </c>
       <c r="L8" s="3">
-        <v>121.47</v>
+        <v>18.3</v>
       </c>
       <c r="M8" s="3">
-        <v>121.47</v>
+        <v>18.3</v>
       </c>
       <c r="N8" s="3">
-        <v>29.15</v>
+        <v>4.39</v>
       </c>
       <c r="O8" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P8" t="s">
         <v>31</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -918,25 +918,25 @@
         <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I9" s="3">
         <v>129.99</v>
       </c>
       <c r="J9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K9" s="1">
         <v>0</v>
       </c>
       <c r="L9" s="3">
-        <v>8.52</v>
+        <v>121.47</v>
       </c>
       <c r="M9" s="3">
-        <v>8.52</v>
+        <v>121.47</v>
       </c>
       <c r="N9" s="3">
-        <v>0.51</v>
+        <v>29.15</v>
       </c>
       <c r="O9" s="1">
         <v>1</v>
@@ -962,7 +962,7 @@
         <v>14460</v>
       </c>
       <c r="F10" s="2">
-        <v>45934</v>
+        <v>45757</v>
       </c>
       <c r="G10" t="s">
         <v>19</v>
@@ -971,25 +971,25 @@
         <v>26</v>
       </c>
       <c r="I10" s="3">
-        <v>18.3</v>
+        <v>129.99</v>
       </c>
       <c r="J10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K10" s="1">
         <v>0</v>
       </c>
       <c r="L10" s="3">
-        <v>18.3</v>
+        <v>8.52</v>
       </c>
       <c r="M10" s="3">
-        <v>18.3</v>
+        <v>8.52</v>
       </c>
       <c r="N10" s="3">
-        <v>4.39</v>
+        <v>0.51</v>
       </c>
       <c r="O10" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P10" t="s">
         <v>31</v>

--- a/exports/802576637_EPSILON_BRIDGE_KINHSEIS.xlsx
+++ b/exports/802576637_EPSILON_BRIDGE_KINHSEIS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
   <si>
     <t>ARTID</t>
   </si>
@@ -97,13 +97,16 @@
     <t>56096</t>
   </si>
   <si>
-    <t>64-9987</t>
+    <t>64-1001</t>
   </si>
   <si>
     <t>64-0000</t>
   </si>
   <si>
-    <t>20-1087</t>
+    <t>20-1000</t>
+  </si>
+  <si>
+    <t>24-0000</t>
   </si>
   <si>
     <t>64-0025</t>
@@ -477,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -592,7 +595,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -642,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -692,7 +695,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -742,7 +745,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -792,7 +795,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -842,7 +845,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -892,7 +895,7 @@
         <v>-1</v>
       </c>
       <c r="P8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -924,7 +927,7 @@
         <v>129.99</v>
       </c>
       <c r="J9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K9" s="1">
         <v>0</v>
@@ -942,7 +945,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -974,7 +977,7 @@
         <v>129.99</v>
       </c>
       <c r="J10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K10" s="1">
         <v>0</v>
@@ -992,7 +995,57 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>170</v>
+      </c>
+      <c r="F11" s="2">
+        <v>45925</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="3">
+        <v>9.4</v>
+      </c>
+      <c r="J11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>9.4</v>
+      </c>
+      <c r="M11" s="3">
+        <v>9.4</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/exports/802576637_EPSILON_BRIDGE_KINHSEIS.xlsx
+++ b/exports/802576637_EPSILON_BRIDGE_KINHSEIS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
   <si>
     <t>ARTID</t>
   </si>
@@ -97,6 +97,9 @@
     <t>56096</t>
   </si>
   <si>
+    <t>9036</t>
+  </si>
+  <si>
     <t>64-1001</t>
   </si>
   <si>
@@ -104,9 +107,6 @@
   </si>
   <si>
     <t>20-1000</t>
-  </si>
-  <si>
-    <t>24-0000</t>
   </si>
   <si>
     <t>64-0025</t>
@@ -480,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -577,7 +577,7 @@
         <v>13.83</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
@@ -627,7 +627,7 @@
         <v>8</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K3" s="1">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>9.4</v>
       </c>
       <c r="J4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>9.4</v>
       </c>
       <c r="J5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K5" s="1">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>8.75</v>
       </c>
       <c r="J6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K6" s="1">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>48.39</v>
       </c>
       <c r="J7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K7" s="1">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>18.3</v>
       </c>
       <c r="J8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K8" s="1">
         <v>0</v>
@@ -912,45 +912,45 @@
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>14460</v>
+        <v>170</v>
       </c>
       <c r="F9" s="2">
-        <v>45757</v>
+        <v>45925</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I9" s="3">
-        <v>129.99</v>
+        <v>9.4</v>
       </c>
       <c r="J9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K9" s="1">
         <v>0</v>
       </c>
       <c r="L9" s="3">
-        <v>121.47</v>
+        <v>9.4</v>
       </c>
       <c r="M9" s="3">
-        <v>121.47</v>
+        <v>9.4</v>
       </c>
       <c r="N9" s="3">
-        <v>29.15</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -977,19 +977,19 @@
         <v>129.99</v>
       </c>
       <c r="J10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K10" s="1">
         <v>0</v>
       </c>
       <c r="L10" s="3">
-        <v>8.52</v>
+        <v>121.47</v>
       </c>
       <c r="M10" s="3">
-        <v>8.52</v>
+        <v>121.47</v>
       </c>
       <c r="N10" s="3">
-        <v>0.51</v>
+        <v>29.15</v>
       </c>
       <c r="O10" s="1">
         <v>1</v>
@@ -1012,40 +1012,90 @@
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>170</v>
+        <v>14460</v>
       </c>
       <c r="F11" s="2">
-        <v>45925</v>
+        <v>45757</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I11" s="3">
-        <v>9.4</v>
+        <v>129.99</v>
       </c>
       <c r="J11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K11" s="1">
         <v>0</v>
       </c>
       <c r="L11" s="3">
-        <v>9.4</v>
+        <v>8.52</v>
       </c>
       <c r="M11" s="3">
-        <v>9.4</v>
+        <v>8.52</v>
       </c>
       <c r="N11" s="3">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="O11" s="1">
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>20254</v>
+      </c>
+      <c r="F12" s="2">
+        <v>45937</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="3">
+        <v>64.52</v>
+      </c>
+      <c r="J12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>64.52</v>
+      </c>
+      <c r="M12" s="3">
+        <v>64.52</v>
+      </c>
+      <c r="N12" s="3">
+        <v>15.48</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+      <c r="P12" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/exports/802576637_EPSILON_BRIDGE_KINHSEIS.xlsx
+++ b/exports/802576637_EPSILON_BRIDGE_KINHSEIS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
   <si>
     <t>ARTID</t>
   </si>
@@ -70,7 +70,7 @@
     <t>ΤΕΡΖΟΠΟΥΛΟΣ ΚΩΝΣΤ (115333562)</t>
   </si>
   <si>
-    <t xml:space="preserve"> (094386010)</t>
+    <t>094386010</t>
   </si>
   <si>
     <t>ΑΦΟΙ ΛΑΓΟΥ ΧΡΩΜΑΤΑ ΙΚΕ</t>
@@ -100,13 +100,16 @@
     <t>9036</t>
   </si>
   <si>
-    <t>64-1001</t>
+    <t>64-9987</t>
   </si>
   <si>
     <t>64-0000</t>
   </si>
   <si>
-    <t>20-1000</t>
+    <t>20-0087</t>
+  </si>
+  <si>
+    <t>24-1087</t>
   </si>
   <si>
     <t>64-0025</t>
@@ -595,7 +598,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -645,7 +648,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -695,7 +698,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -745,7 +748,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -795,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -845,7 +848,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -895,7 +898,7 @@
         <v>-1</v>
       </c>
       <c r="P8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -945,7 +948,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -977,7 +980,7 @@
         <v>129.99</v>
       </c>
       <c r="J10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K10" s="1">
         <v>0</v>
@@ -995,7 +998,7 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1027,7 +1030,7 @@
         <v>129.99</v>
       </c>
       <c r="J11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K11" s="1">
         <v>0</v>
@@ -1045,7 +1048,7 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1095,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/exports/802576637_EPSILON_BRIDGE_KINHSEIS.xlsx
+++ b/exports/802576637_EPSILON_BRIDGE_KINHSEIS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
   <si>
     <t>ARTID</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>LCODE</t>
+  </si>
+  <si>
+    <t>OTHEREXPEND</t>
   </si>
   <si>
     <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
@@ -483,7 +486,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -499,9 +502,10 @@
     <col min="12" max="14" width="14.7109375" style="3" customWidth="1"/>
     <col min="15" max="15" width="10.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="16.7109375" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -550,8 +554,11 @@
       <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -571,16 +578,16 @@
         <v>45933</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2" s="3">
         <v>13.83</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
@@ -598,10 +605,13 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -621,16 +631,16 @@
         <v>45940</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I3" s="3">
         <v>8</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K3" s="1">
         <v>0</v>
@@ -648,10 +658,13 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -671,16 +684,16 @@
         <v>45925</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I4" s="3">
         <v>9.4</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
@@ -698,10 +711,13 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -721,16 +737,16 @@
         <v>45925</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I5" s="3">
         <v>9.4</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K5" s="1">
         <v>0</v>
@@ -748,10 +764,13 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -771,16 +790,16 @@
         <v>45934</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I6" s="3">
         <v>8.75</v>
       </c>
       <c r="J6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K6" s="1">
         <v>0</v>
@@ -798,10 +817,13 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -821,16 +843,16 @@
         <v>45934</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I7" s="3">
         <v>48.39</v>
       </c>
       <c r="J7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K7" s="1">
         <v>0</v>
@@ -848,10 +870,13 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -871,16 +896,16 @@
         <v>45934</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I8" s="3">
         <v>18.3</v>
       </c>
       <c r="J8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K8" s="1">
         <v>0</v>
@@ -898,10 +923,13 @@
         <v>-1</v>
       </c>
       <c r="P8" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -921,16 +949,16 @@
         <v>45925</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="3">
         <v>9.4</v>
       </c>
       <c r="J9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K9" s="1">
         <v>0</v>
@@ -948,10 +976,13 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -971,16 +1002,16 @@
         <v>45757</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I10" s="3">
         <v>129.99</v>
       </c>
       <c r="J10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K10" s="1">
         <v>0</v>
@@ -998,10 +1029,13 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1021,16 +1055,16 @@
         <v>45757</v>
       </c>
       <c r="G11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I11" s="3">
         <v>129.99</v>
       </c>
       <c r="J11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K11" s="1">
         <v>0</v>
@@ -1048,10 +1082,13 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1071,16 +1108,16 @@
         <v>45937</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I12" s="3">
         <v>64.52</v>
       </c>
       <c r="J12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K12" s="1">
         <v>0</v>
@@ -1098,7 +1135,10 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/exports/802576637_EPSILON_BRIDGE_KINHSEIS.xlsx
+++ b/exports/802576637_EPSILON_BRIDGE_KINHSEIS.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="ΚΙΝΗΣΕΙΣ" sheetId="1" r:id="rId1"/>
+    <sheet name="ΣΥΝΑΛΛΑΣΟΜΕΝΟΙ" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
   <si>
     <t>ARTID</t>
   </si>
@@ -70,58 +71,58 @@
     <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
   </si>
   <si>
-    <t>ΤΕΡΖΟΠΟΥΛΟΣ ΚΩΝΣΤ (115333562)</t>
-  </si>
-  <si>
-    <t>094386010</t>
-  </si>
-  <si>
     <t>ΑΦΟΙ ΛΑΓΟΥ ΧΡΩΜΑΤΑ ΙΚΕ</t>
   </si>
   <si>
-    <t>10768</t>
-  </si>
-  <si>
-    <t>36671</t>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>8962</t>
-  </si>
-  <si>
-    <t>8970</t>
-  </si>
-  <si>
-    <t>60038</t>
-  </si>
-  <si>
-    <t>56096</t>
-  </si>
-  <si>
-    <t>9036</t>
+    <t>12Μ0ΤΔΑ 10768</t>
+  </si>
+  <si>
+    <t>8Μ0ΤΔΑ 8962</t>
+  </si>
+  <si>
+    <t>8Μ0ΤΔΑ 8970</t>
+  </si>
+  <si>
+    <t>TΔA 60038</t>
+  </si>
+  <si>
+    <t>TΔA 56096</t>
+  </si>
+  <si>
+    <t>8Μ0ΤΔΑ 9036</t>
   </si>
   <si>
     <t>64-9987</t>
   </si>
   <si>
-    <t>64-0000</t>
+    <t>24-1087</t>
   </si>
   <si>
     <t>20-0087</t>
   </si>
   <si>
-    <t>24-1087</t>
-  </si>
-  <si>
     <t>64-0025</t>
   </si>
   <si>
     <t>50-0000</t>
   </si>
   <si>
-    <t>50-1000</t>
+    <t>Α/Α</t>
+  </si>
+  <si>
+    <t>ΑΦΜ</t>
+  </si>
+  <si>
+    <t>ΕΠΩΝΥΜΙΑ</t>
+  </si>
+  <si>
+    <t>800916954</t>
+  </si>
+  <si>
+    <t>094439854</t>
+  </si>
+  <si>
+    <t>ΤΡΑΚΑΔΑΣ ΕΜΠΟΡΙΟ ΑΝΤΙΠΡΟΣΩΠΕΙΕΣ ΧΡΩΜΑΤΩΝ ΑΝΩΝΥΜΟΣ ΕΜΠΟΡΙΚΗ Ε</t>
   </si>
 </sst>
 </file>
@@ -486,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -581,13 +582,13 @@
         <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I2" s="3">
         <v>13.83</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
@@ -605,7 +606,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Q2" s="1">
         <v>0</v>
@@ -625,43 +626,43 @@
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>170</v>
+        <v>20254</v>
       </c>
       <c r="F3" s="2">
-        <v>45940</v>
+        <v>45934</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I3" s="3">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="J3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K3" s="1">
         <v>0</v>
       </c>
       <c r="L3" s="3">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="M3" s="3">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="N3" s="3">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="O3" s="1">
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="Q3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -678,43 +679,43 @@
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>170</v>
+        <v>20254</v>
       </c>
       <c r="F4" s="2">
-        <v>45925</v>
+        <v>45934</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I4" s="3">
-        <v>9.4</v>
+        <v>48.39</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
       </c>
       <c r="L4" s="3">
-        <v>9.4</v>
+        <v>48.39</v>
       </c>
       <c r="M4" s="3">
-        <v>9.4</v>
+        <v>48.39</v>
       </c>
       <c r="N4" s="3">
-        <v>0</v>
+        <v>11.61</v>
       </c>
       <c r="O4" s="1">
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="Q4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -731,43 +732,43 @@
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>170</v>
+        <v>14460</v>
       </c>
       <c r="F5" s="2">
-        <v>45925</v>
+        <v>45934</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I5" s="3">
-        <v>9.4</v>
+        <v>18.3</v>
       </c>
       <c r="J5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K5" s="1">
         <v>0</v>
       </c>
       <c r="L5" s="3">
-        <v>9.4</v>
+        <v>18.3</v>
       </c>
       <c r="M5" s="3">
-        <v>9.4</v>
+        <v>18.3</v>
       </c>
       <c r="N5" s="3">
-        <v>0</v>
+        <v>4.39</v>
       </c>
       <c r="O5" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="Q5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -784,40 +785,40 @@
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>20254</v>
+        <v>14460</v>
       </c>
       <c r="F6" s="2">
-        <v>45934</v>
+        <v>45757</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I6" s="3">
-        <v>8.75</v>
+        <v>129.99</v>
       </c>
       <c r="J6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K6" s="1">
         <v>0</v>
       </c>
       <c r="L6" s="3">
-        <v>8.75</v>
+        <v>121.47</v>
       </c>
       <c r="M6" s="3">
-        <v>8.75</v>
+        <v>121.47</v>
       </c>
       <c r="N6" s="3">
-        <v>2.1</v>
+        <v>29.15</v>
       </c>
       <c r="O6" s="1">
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Q6" s="1">
         <v>0</v>
@@ -825,7 +826,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -837,40 +838,40 @@
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>20254</v>
+        <v>14460</v>
       </c>
       <c r="F7" s="2">
-        <v>45934</v>
+        <v>45757</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I7" s="3">
-        <v>48.39</v>
+        <v>129.99</v>
       </c>
       <c r="J7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K7" s="1">
         <v>0</v>
       </c>
       <c r="L7" s="3">
-        <v>48.39</v>
+        <v>8.52</v>
       </c>
       <c r="M7" s="3">
-        <v>48.39</v>
+        <v>8.52</v>
       </c>
       <c r="N7" s="3">
-        <v>11.61</v>
+        <v>0.51</v>
       </c>
       <c r="O7" s="1">
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Q7" s="1">
         <v>0</v>
@@ -878,7 +879,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -890,255 +891,94 @@
         <v>0</v>
       </c>
       <c r="E8" s="1">
+        <v>20254</v>
+      </c>
+      <c r="F8" s="2">
+        <v>45937</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="3">
+        <v>64.52</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>64.52</v>
+      </c>
+      <c r="M8" s="3">
+        <v>64.52</v>
+      </c>
+      <c r="N8" s="3">
+        <v>15.48</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+      <c r="P8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
         <v>14460</v>
       </c>
-      <c r="F8" s="2">
-        <v>45934</v>
-      </c>
-      <c r="G8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="3">
-        <v>18.3</v>
-      </c>
-      <c r="J8" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>18.3</v>
-      </c>
-      <c r="M8" s="3">
-        <v>18.3</v>
-      </c>
-      <c r="N8" s="3">
-        <v>4.39</v>
-      </c>
-      <c r="O8" s="1">
-        <v>-1</v>
-      </c>
-      <c r="P8" t="s">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>20254</v>
+      </c>
+      <c r="B3" t="s">
         <v>34</v>
       </c>
-      <c r="Q8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>170</v>
-      </c>
-      <c r="F9" s="2">
-        <v>45925</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="3">
-        <v>9.4</v>
-      </c>
-      <c r="J9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>9.4</v>
-      </c>
-      <c r="M9" s="3">
-        <v>9.4</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="1">
-        <v>1</v>
-      </c>
-      <c r="P9" t="s">
+      <c r="C3" t="s">
         <v>35</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>14460</v>
-      </c>
-      <c r="F10" s="2">
-        <v>45757</v>
-      </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="3">
-        <v>129.99</v>
-      </c>
-      <c r="J10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
-        <v>121.47</v>
-      </c>
-      <c r="M10" s="3">
-        <v>121.47</v>
-      </c>
-      <c r="N10" s="3">
-        <v>29.15</v>
-      </c>
-      <c r="O10" s="1">
-        <v>1</v>
-      </c>
-      <c r="P10" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>14460</v>
-      </c>
-      <c r="F11" s="2">
-        <v>45757</v>
-      </c>
-      <c r="G11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="3">
-        <v>129.99</v>
-      </c>
-      <c r="J11" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-      <c r="L11" s="3">
-        <v>8.52</v>
-      </c>
-      <c r="M11" s="3">
-        <v>8.52</v>
-      </c>
-      <c r="N11" s="3">
-        <v>0.51</v>
-      </c>
-      <c r="O11" s="1">
-        <v>1</v>
-      </c>
-      <c r="P11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>20254</v>
-      </c>
-      <c r="F12" s="2">
-        <v>45937</v>
-      </c>
-      <c r="G12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="3">
-        <v>64.52</v>
-      </c>
-      <c r="J12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3">
-        <v>64.52</v>
-      </c>
-      <c r="M12" s="3">
-        <v>64.52</v>
-      </c>
-      <c r="N12" s="3">
-        <v>15.48</v>
-      </c>
-      <c r="O12" s="1">
-        <v>1</v>
-      </c>
-      <c r="P12" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/exports/802576637_EPSILON_BRIDGE_KINHSEIS.xlsx
+++ b/exports/802576637_EPSILON_BRIDGE_KINHSEIS.xlsx
@@ -8,14 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="ΚΙΝΗΣΕΙΣ" sheetId="1" r:id="rId1"/>
-    <sheet name="ΣΥΝΑΛΛΑΣΟΜΕΝΟΙ" sheetId="2" r:id="rId2"/>
+    <sheet name="ΣΥΝΑΛΛΑΣΣΟΜΕΝΟΙ" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>ARTID</t>
   </si>
@@ -74,6 +74,9 @@
     <t>ΑΦΟΙ ΛΑΓΟΥ ΧΡΩΜΑΤΑ ΙΚΕ</t>
   </si>
   <si>
+    <t>094386010</t>
+  </si>
+  <si>
     <t>12Μ0ΤΔΑ 10768</t>
   </si>
   <si>
@@ -92,6 +95,9 @@
     <t>8Μ0ΤΔΑ 9036</t>
   </si>
   <si>
+    <t>ΑΛΠ 165</t>
+  </si>
+  <si>
     <t>64-9987</t>
   </si>
   <si>
@@ -104,6 +110,9 @@
     <t>64-0025</t>
   </si>
   <si>
+    <t>64-0000</t>
+  </si>
+  <si>
     <t>50-0000</t>
   </si>
   <si>
@@ -116,13 +125,16 @@
     <t>ΕΠΩΝΥΜΙΑ</t>
   </si>
   <si>
+    <t>000000000</t>
+  </si>
+  <si>
     <t>800916954</t>
   </si>
   <si>
     <t>094439854</t>
   </si>
   <si>
-    <t>ΤΡΑΚΑΔΑΣ ΕΜΠΟΡΙΟ ΑΝΤΙΠΡΟΣΩΠΕΙΕΣ ΧΡΩΜΑΤΩΝ ΑΝΩΝΥΜΟΣ ΕΜΠΟΡΙΚΗ Ε</t>
+    <t>ΠΡΟΜΗΘΕΥΤΕΣ ΔΑΠΑΝΩΝ</t>
   </si>
 </sst>
 </file>
@@ -487,7 +499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,13 +594,13 @@
         <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" s="3">
         <v>13.83</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
@@ -606,7 +618,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q2" s="1">
         <v>0</v>
@@ -635,13 +647,13 @@
         <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3" s="3">
         <v>8.75</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K3" s="1">
         <v>0</v>
@@ -659,7 +671,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q3" s="1">
         <v>0</v>
@@ -688,13 +700,13 @@
         <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I4" s="3">
         <v>48.39</v>
       </c>
       <c r="J4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
@@ -712,7 +724,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q4" s="1">
         <v>0</v>
@@ -741,13 +753,13 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I5" s="3">
         <v>18.3</v>
       </c>
       <c r="J5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K5" s="1">
         <v>0</v>
@@ -765,7 +777,7 @@
         <v>-1</v>
       </c>
       <c r="P5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q5" s="1">
         <v>0</v>
@@ -794,13 +806,13 @@
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I6" s="3">
         <v>129.99</v>
       </c>
       <c r="J6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K6" s="1">
         <v>0</v>
@@ -818,7 +830,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="1">
         <v>0</v>
@@ -847,13 +859,13 @@
         <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I7" s="3">
         <v>129.99</v>
       </c>
       <c r="J7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K7" s="1">
         <v>0</v>
@@ -871,7 +883,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="1">
         <v>0</v>
@@ -900,13 +912,13 @@
         <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I8" s="3">
         <v>64.52</v>
       </c>
       <c r="J8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K8" s="1">
         <v>0</v>
@@ -924,10 +936,63 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="1">
         <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>170</v>
+      </c>
+      <c r="F9" s="2">
+        <v>45925</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="3">
+        <v>9.4</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>9.4</v>
+      </c>
+      <c r="M9" s="3">
+        <v>9.4</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+      <c r="P9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -937,7 +1002,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -950,35 +1015,46 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>14460</v>
+        <v>170</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
+        <v>14460</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
         <v>20254</v>
       </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/exports/802576637_EPSILON_BRIDGE_KINHSEIS.xlsx
+++ b/exports/802576637_EPSILON_BRIDGE_KINHSEIS.xlsx
@@ -74,7 +74,7 @@
     <t>ΑΦΟΙ ΛΑΓΟΥ ΧΡΩΜΑΤΑ ΙΚΕ</t>
   </si>
   <si>
-    <t>094386010</t>
+    <t>ΤΕΡΖΟΠΟΥΛΟΣ ΚΩΝΣΤ (115333562)</t>
   </si>
   <si>
     <t>12Μ0ΤΔΑ 10768</t>
@@ -95,7 +95,7 @@
     <t>8Μ0ΤΔΑ 9036</t>
   </si>
   <si>
-    <t>ΑΛΠ 165</t>
+    <t>ΑΛΠ 36671</t>
   </si>
   <si>
     <t>64-9987</t>
@@ -959,7 +959,7 @@
         <v>170</v>
       </c>
       <c r="F9" s="2">
-        <v>45925</v>
+        <v>45940</v>
       </c>
       <c r="G9" t="s">
         <v>19</v>
@@ -968,7 +968,7 @@
         <v>26</v>
       </c>
       <c r="I9" s="3">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="J9" t="s">
         <v>31</v>
@@ -977,10 +977,10 @@
         <v>0</v>
       </c>
       <c r="L9" s="3">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="M9" s="3">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>

--- a/exports/802576637_EPSILON_BRIDGE_KINHSEIS.xlsx
+++ b/exports/802576637_EPSILON_BRIDGE_KINHSEIS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>ARTID</t>
   </si>
@@ -68,46 +68,22 @@
     <t>OTHEREXPEND</t>
   </si>
   <si>
-    <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
-  </si>
-  <si>
-    <t>ΑΦΟΙ ΛΑΓΟΥ ΧΡΩΜΑΤΑ ΙΚΕ</t>
-  </si>
-  <si>
     <t>ΤΕΡΖΟΠΟΥΛΟΣ ΚΩΝΣΤ (115333562)</t>
   </si>
   <si>
-    <t>12Μ0ΤΔΑ 10768</t>
-  </si>
-  <si>
-    <t>8Μ0ΤΔΑ 8962</t>
-  </si>
-  <si>
-    <t>8Μ0ΤΔΑ 8970</t>
-  </si>
-  <si>
-    <t>TΔA 60038</t>
-  </si>
-  <si>
-    <t>TΔA 56096</t>
-  </si>
-  <si>
-    <t>8Μ0ΤΔΑ 9036</t>
+    <t>998345385</t>
+  </si>
+  <si>
+    <t>094439854</t>
   </si>
   <si>
     <t>ΑΛΠ 36671</t>
   </si>
   <si>
-    <t>64-9987</t>
-  </si>
-  <si>
-    <t>24-1087</t>
-  </si>
-  <si>
-    <t>20-0087</t>
-  </si>
-  <si>
-    <t>64-0025</t>
+    <t>ΑΛΠ 130739</t>
+  </si>
+  <si>
+    <t>ΑΛΠ 8350</t>
   </si>
   <si>
     <t>64-0000</t>
@@ -126,12 +102,6 @@
   </si>
   <si>
     <t>000000000</t>
-  </si>
-  <si>
-    <t>800916954</t>
-  </si>
-  <si>
-    <t>094439854</t>
   </si>
   <si>
     <t>ΠΡΟΜΗΘΕΥΤΕΣ ΔΑΠΑΝΩΝ</t>
@@ -499,7 +469,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -585,10 +555,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>20254</v>
+        <v>170</v>
       </c>
       <c r="F2" s="2">
-        <v>45933</v>
+        <v>45940</v>
       </c>
       <c r="G2" t="s">
         <v>17</v>
@@ -597,31 +567,31 @@
         <v>20</v>
       </c>
       <c r="I2" s="3">
-        <v>13.83</v>
+        <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
       <c r="L2" s="3">
-        <v>13.83</v>
+        <v>8</v>
       </c>
       <c r="M2" s="3">
-        <v>13.83</v>
+        <v>8</v>
       </c>
       <c r="N2" s="3">
-        <v>3.32</v>
+        <v>0</v>
       </c>
       <c r="O2" s="1">
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="Q2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -638,43 +608,43 @@
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>20254</v>
+        <v>170</v>
       </c>
       <c r="F3" s="2">
-        <v>45934</v>
+        <v>45961</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
         <v>21</v>
       </c>
       <c r="I3" s="3">
-        <v>8.75</v>
+        <v>2.6</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K3" s="1">
         <v>0</v>
       </c>
       <c r="L3" s="3">
-        <v>8.75</v>
+        <v>2.6</v>
       </c>
       <c r="M3" s="3">
-        <v>8.75</v>
+        <v>2.6</v>
       </c>
       <c r="N3" s="3">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="Q3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -691,307 +661,42 @@
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>20254</v>
+        <v>170</v>
       </c>
       <c r="F4" s="2">
-        <v>45934</v>
+        <v>45941</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="I4" s="3">
-        <v>48.39</v>
+        <v>3.5</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
       </c>
       <c r="L4" s="3">
-        <v>48.39</v>
+        <v>3.5</v>
       </c>
       <c r="M4" s="3">
-        <v>48.39</v>
+        <v>3.5</v>
       </c>
       <c r="N4" s="3">
-        <v>11.61</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="Q4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>14460</v>
-      </c>
-      <c r="F5" s="2">
-        <v>45934</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="3">
-        <v>18.3</v>
-      </c>
-      <c r="J5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3">
-        <v>18.3</v>
-      </c>
-      <c r="M5" s="3">
-        <v>18.3</v>
-      </c>
-      <c r="N5" s="3">
-        <v>4.39</v>
-      </c>
-      <c r="O5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="P5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>14460</v>
-      </c>
-      <c r="F6" s="2">
-        <v>45757</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="3">
-        <v>129.99</v>
-      </c>
-      <c r="J6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3">
-        <v>121.47</v>
-      </c>
-      <c r="M6" s="3">
-        <v>121.47</v>
-      </c>
-      <c r="N6" s="3">
-        <v>29.15</v>
-      </c>
-      <c r="O6" s="1">
-        <v>1</v>
-      </c>
-      <c r="P6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>14460</v>
-      </c>
-      <c r="F7" s="2">
-        <v>45757</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="3">
-        <v>129.99</v>
-      </c>
-      <c r="J7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3">
-        <v>8.52</v>
-      </c>
-      <c r="M7" s="3">
-        <v>8.52</v>
-      </c>
-      <c r="N7" s="3">
-        <v>0.51</v>
-      </c>
-      <c r="O7" s="1">
-        <v>1</v>
-      </c>
-      <c r="P7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>20254</v>
-      </c>
-      <c r="F8" s="2">
-        <v>45937</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="3">
-        <v>64.52</v>
-      </c>
-      <c r="J8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>64.52</v>
-      </c>
-      <c r="M8" s="3">
-        <v>64.52</v>
-      </c>
-      <c r="N8" s="3">
-        <v>15.48</v>
-      </c>
-      <c r="O8" s="1">
-        <v>1</v>
-      </c>
-      <c r="P8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>170</v>
-      </c>
-      <c r="F9" s="2">
-        <v>45940</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="3">
-        <v>8</v>
-      </c>
-      <c r="J9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>8</v>
-      </c>
-      <c r="M9" s="3">
-        <v>8</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="1">
-        <v>1</v>
-      </c>
-      <c r="P9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q9" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1002,7 +707,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1015,13 +720,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1029,32 +734,10 @@
         <v>170</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>14460</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>20254</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/exports/802576637_EPSILON_BRIDGE_KINHSEIS.xlsx
+++ b/exports/802576637_EPSILON_BRIDGE_KINHSEIS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t>ARTID</t>
   </si>
@@ -68,6 +68,12 @@
     <t>OTHEREXPEND</t>
   </si>
   <si>
+    <t>ΤΡΑΚΑΔΑΣ Α.Ε.</t>
+  </si>
+  <si>
+    <t>ΑΦΟΙ ΛΑΓΟΥ ΧΡΩΜΑΤΑ ΙΚΕ</t>
+  </si>
+  <si>
     <t>ΤΕΡΖΟΠΟΥΛΟΣ ΚΩΝΣΤ (115333562)</t>
   </si>
   <si>
@@ -77,6 +83,21 @@
     <t>094439854</t>
   </si>
   <si>
+    <t>8Μ0ΤΔΑ 8962</t>
+  </si>
+  <si>
+    <t>8Μ0ΤΔΑ 8970</t>
+  </si>
+  <si>
+    <t>TΔA 60038</t>
+  </si>
+  <si>
+    <t>TΔA 56096</t>
+  </si>
+  <si>
+    <t>8Μ0ΤΔΑ 9036</t>
+  </si>
+  <si>
     <t>ΑΛΠ 36671</t>
   </si>
   <si>
@@ -86,6 +107,15 @@
     <t>ΑΛΠ 8350</t>
   </si>
   <si>
+    <t>24-1087</t>
+  </si>
+  <si>
+    <t>20-1087</t>
+  </si>
+  <si>
+    <t>64-0025</t>
+  </si>
+  <si>
     <t>64-0000</t>
   </si>
   <si>
@@ -102,6 +132,9 @@
   </si>
   <si>
     <t>000000000</t>
+  </si>
+  <si>
+    <t>800916954</t>
   </si>
   <si>
     <t>ΠΡΟΜΗΘΕΥΤΕΣ ΔΑΠΑΝΩΝ</t>
@@ -469,7 +502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -555,43 +588,43 @@
         <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>170</v>
+        <v>20254</v>
       </c>
       <c r="F2" s="2">
-        <v>45940</v>
+        <v>45934</v>
       </c>
       <c r="G2" t="s">
         <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I2" s="3">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
       <c r="L2" s="3">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="M2" s="3">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="N2" s="3">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="O2" s="1">
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="Q2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -608,43 +641,43 @@
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>170</v>
+        <v>20254</v>
       </c>
       <c r="F3" s="2">
-        <v>45961</v>
+        <v>45934</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I3" s="3">
-        <v>2.6</v>
+        <v>48.39</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="K3" s="1">
         <v>0</v>
       </c>
       <c r="L3" s="3">
-        <v>2.6</v>
+        <v>48.39</v>
       </c>
       <c r="M3" s="3">
-        <v>2.6</v>
+        <v>48.39</v>
       </c>
       <c r="N3" s="3">
-        <v>0</v>
+        <v>11.61</v>
       </c>
       <c r="O3" s="1">
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="Q3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -661,42 +694,360 @@
         <v>0</v>
       </c>
       <c r="E4" s="1">
+        <v>14460</v>
+      </c>
+      <c r="F4" s="2">
+        <v>45934</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="3">
+        <v>18.3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>18.3</v>
+      </c>
+      <c r="M4" s="3">
+        <v>18.3</v>
+      </c>
+      <c r="N4" s="3">
+        <v>4.39</v>
+      </c>
+      <c r="O4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>14460</v>
+      </c>
+      <c r="F5" s="2">
+        <v>45757</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="3">
+        <v>129.99</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>121.47</v>
+      </c>
+      <c r="M5" s="3">
+        <v>121.47</v>
+      </c>
+      <c r="N5" s="3">
+        <v>29.15</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>14460</v>
+      </c>
+      <c r="F6" s="2">
+        <v>45757</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="3">
+        <v>129.99</v>
+      </c>
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>8.52</v>
+      </c>
+      <c r="M6" s="3">
+        <v>8.52</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+      <c r="P6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>20254</v>
+      </c>
+      <c r="F7" s="2">
+        <v>45937</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="3">
+        <v>64.52</v>
+      </c>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>64.52</v>
+      </c>
+      <c r="M7" s="3">
+        <v>64.52</v>
+      </c>
+      <c r="N7" s="3">
+        <v>15.48</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+      <c r="P7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
         <v>170</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F8" s="2">
+        <v>45940</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="3">
+        <v>8</v>
+      </c>
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>8</v>
+      </c>
+      <c r="M8" s="3">
+        <v>8</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+      <c r="P8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>170</v>
+      </c>
+      <c r="F9" s="2">
+        <v>45961</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="J9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="M9" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+      <c r="P9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>170</v>
+      </c>
+      <c r="F10" s="2">
         <v>45941</v>
       </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="3">
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="3">
         <v>3.5</v>
       </c>
-      <c r="J4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3">
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>3.5</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M10" s="3">
         <v>3.5</v>
       </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
-      <c r="O4" s="1">
-        <v>1</v>
-      </c>
-      <c r="P4" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q4" s="1">
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+      <c r="P10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q10" s="1">
         <v>1</v>
       </c>
     </row>
@@ -707,7 +1058,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -720,13 +1071,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -734,10 +1085,32 @@
         <v>170</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>14460</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>20254</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
